--- a/Project Documents/Updated Project Gantt Chart.xlsx
+++ b/Project Documents/Updated Project Gantt Chart.xlsx
@@ -8,22 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CC8FE-4007-4A22-804C-F23E849F65F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC448F9-8A8B-43C3-9FF7-9986C020F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
-    <sheet name="About" sheetId="12" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Display_Week" localSheetId="1">Schedule!$P$2</definedName>
     <definedName name="Display_Week">'Project schedule'!$P$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project schedule'!$4:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Schedule!$4:$5</definedName>
+    <definedName name="Project_Start" localSheetId="1">Schedule!$P$1</definedName>
     <definedName name="Project_Start">'Project schedule'!$P$1</definedName>
     <definedName name="task_end" localSheetId="0">'Project schedule'!$F1</definedName>
+    <definedName name="task_end" localSheetId="1">Schedule!$E1</definedName>
     <definedName name="task_progress" localSheetId="0">'Project schedule'!$D1</definedName>
+    <definedName name="task_progress" localSheetId="1">Schedule!#REF!</definedName>
     <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
+    <definedName name="task_start" localSheetId="1">Schedule!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
+    <definedName name="today" localSheetId="1">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -52,54 +59,7 @@
     <t>PROGRESS</t>
   </si>
   <si>
-    <t>Project Management Templates</t>
-  </si>
-  <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>More Project Management Templates</t>
-  </si>
-  <si>
-    <t>About This Template</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>Additional Help</t>
-  </si>
-  <si>
-    <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
-  </si>
-  <si>
-    <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
-  </si>
-  <si>
-    <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
-  </si>
-  <si>
-    <t>How to Use the Simple Gantt Chart</t>
-  </si>
-  <si>
-    <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>There are 2 worksheets in this workbook. 
-TimeSheet
-About
-The instructions for each worksheet are in the A column starting in cell A1 of each worksheet. They are written with hidden text. Each step guides you through the information in that row. Each subsequent step continues in cell A2, A3, and so on, unless otherwise explicitly directed. For example, instruction text might say "continue to cell A6" for the next step. 
-This hidden text will not print.
-To remove these instructions from the worksheet, simply delete column A.</t>
-  </si>
-  <si>
-    <t>Guide for Screen Readers</t>
   </si>
   <si>
     <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
@@ -215,6 +175,12 @@
   <si>
     <t>Chetan Sapkal &amp; Chetan Talele</t>
   </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +193,7 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,34 +255,6 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -440,21 +378,6 @@
       <name val="Arial Black"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -767,7 +690,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -791,7 +714,7 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="2" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -804,44 +727,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -851,38 +758,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -894,64 +801,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -960,22 +867,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -984,37 +891,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1023,125 +930,110 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1160,7 +1052,410 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1660,15 +1955,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
-      <tableStyleElement type="totalRow" dxfId="35"/>
-      <tableStyleElement type="firstColumn" dxfId="34"/>
-      <tableStyleElement type="lastColumn" dxfId="33"/>
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="30"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="29"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="totalRow" dxfId="64"/>
+      <tableStyleElement type="firstColumn" dxfId="63"/>
+      <tableStyleElement type="lastColumn" dxfId="62"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="secondRowStripe" dxfId="60"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="59"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="58"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1759,62 +2054,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Vertex42 logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2025,13 +2264,13 @@
   </sheetPr>
   <dimension ref="A1:BK34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="58" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="B13" zoomScale="88" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="20.296875" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
@@ -2042,544 +2281,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="90" customHeight="1" x14ac:dyDescent="1.45">
-      <c r="A1" s="13"/>
-      <c r="B1" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="113">
+      <c r="H1" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="111">
         <f>DATE(2025,5,15)</f>
         <v>45792</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
     </row>
     <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="111">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="H2" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="109">
         <v>1</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
     </row>
-    <row r="3" spans="1:63" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="23"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+    <row r="3" spans="1:63" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:63" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="109" t="s">
+    <row r="4" spans="1:63" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="E4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="21">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45789</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="21">
         <f>H4+1</f>
         <v>45790</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="21">
         <f t="shared" ref="J4:AP4" si="0">I4+1</f>
         <v>45791</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="21">
         <f t="shared" si="0"/>
         <v>45792</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="21">
         <f t="shared" si="0"/>
         <v>45793</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>45794</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="22">
         <f t="shared" si="0"/>
         <v>45795</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="23">
         <f>N4+1</f>
         <v>45796</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="21">
         <f>O4+1</f>
         <v>45797</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="21">
         <f t="shared" si="0"/>
         <v>45798</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="21">
         <f t="shared" si="0"/>
         <v>45799</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="21">
         <f t="shared" si="0"/>
         <v>45800</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="21">
         <f t="shared" si="0"/>
         <v>45801</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="22">
         <f t="shared" si="0"/>
         <v>45802</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="23">
         <f>U4+1</f>
         <v>45803</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="21">
         <f>V4+1</f>
         <v>45804</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="21">
         <f t="shared" si="0"/>
         <v>45805</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="21">
         <f t="shared" si="0"/>
         <v>45806</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="Z4" s="21">
         <f t="shared" si="0"/>
         <v>45807</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA4" s="21">
         <f t="shared" si="0"/>
         <v>45808</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="22">
         <f t="shared" si="0"/>
         <v>45809</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="23">
         <f>AB4+1</f>
         <v>45810</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AD4" s="21">
         <f>AC4+1</f>
         <v>45811</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AE4" s="21">
         <f t="shared" si="0"/>
         <v>45812</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AF4" s="21">
         <f t="shared" si="0"/>
         <v>45813</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AG4" s="21">
         <f t="shared" si="0"/>
         <v>45814</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="AH4" s="21">
         <f t="shared" si="0"/>
         <v>45815</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AI4" s="22">
         <f t="shared" si="0"/>
         <v>45816</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="23">
         <f>AI4+1</f>
         <v>45817</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AK4" s="21">
         <f>AJ4+1</f>
         <v>45818</v>
       </c>
-      <c r="AL4" s="27">
+      <c r="AL4" s="21">
         <f t="shared" si="0"/>
         <v>45819</v>
       </c>
-      <c r="AM4" s="27">
+      <c r="AM4" s="21">
         <f t="shared" si="0"/>
         <v>45820</v>
       </c>
-      <c r="AN4" s="27">
+      <c r="AN4" s="21">
         <f t="shared" si="0"/>
         <v>45821</v>
       </c>
-      <c r="AO4" s="27">
+      <c r="AO4" s="21">
         <f t="shared" si="0"/>
         <v>45822</v>
       </c>
-      <c r="AP4" s="28">
+      <c r="AP4" s="22">
         <f t="shared" si="0"/>
         <v>45823</v>
       </c>
-      <c r="AQ4" s="29">
+      <c r="AQ4" s="23">
         <f>AP4+1</f>
         <v>45824</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="24" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="121"/>
-      <c r="H5" s="30" t="str">
+    <row r="5" spans="1:63" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
+      <c r="H5" s="24" t="str">
         <f t="shared" ref="H5:AM5" si="1">LEFT(TEXT(H4,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="I5" s="31" t="str">
+      <c r="I5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="J5" s="31" t="str">
+      <c r="J5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="K5" s="31" t="str">
+      <c r="K5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="O5" s="31" t="str">
+      <c r="O5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="P5" s="31" t="str">
+      <c r="P5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="Q5" s="31" t="str">
+      <c r="Q5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="R5" s="31" t="str">
+      <c r="R5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="S5" s="31" t="str">
+      <c r="S5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="T5" s="31" t="str">
+      <c r="T5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="U5" s="31" t="str">
+      <c r="U5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="V5" s="31" t="str">
+      <c r="V5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="W5" s="31" t="str">
+      <c r="W5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="X5" s="31" t="str">
+      <c r="X5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="Y5" s="31" t="str">
+      <c r="Y5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="Z5" s="31" t="str">
+      <c r="Z5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="AA5" s="31" t="str">
+      <c r="AA5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AB5" s="31" t="str">
+      <c r="AB5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AC5" s="31" t="str">
+      <c r="AC5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="AD5" s="31" t="str">
+      <c r="AD5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="AE5" s="31" t="str">
+      <c r="AE5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="AF5" s="31" t="str">
+      <c r="AF5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="AG5" s="31" t="str">
+      <c r="AG5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="AH5" s="31" t="str">
+      <c r="AH5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AI5" s="31" t="str">
+      <c r="AI5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="AJ5" s="31" t="str">
+      <c r="AJ5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="AK5" s="31" t="str">
+      <c r="AK5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="AL5" s="31" t="str">
+      <c r="AL5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="AM5" s="31" t="str">
+      <c r="AM5" s="25" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="AN5" s="31" t="str">
+      <c r="AN5" s="25" t="str">
         <f t="shared" ref="AN5:AQ5" si="2">LEFT(TEXT(AN4,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AO5" s="31" t="str">
+      <c r="AO5" s="25" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AP5" s="31" t="str">
+      <c r="AP5" s="25" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AQ5" s="31" t="str">
+      <c r="AQ5" s="25" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="24" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="24" t="str">
+    <row r="6" spans="1:63" s="18" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="18" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="34"/>
-      <c r="BC6" s="34"/>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
     </row>
-    <row r="7" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+    <row r="7" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="4" t="str">
         <f t="shared" ref="G7:G30" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
     </row>
-    <row r="8" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="43">
+    <row r="8" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="37">
         <v>1</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="38">
         <f>Project_Start</f>
         <v>45792</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="38">
         <f>E8+1</f>
         <v>45793</v>
       </c>
@@ -2587,79 +2826,79 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="39"/>
     </row>
-    <row r="9" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="47">
+    <row r="9" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="41">
         <v>1</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="42">
         <f>E8+1</f>
         <v>45793</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="42">
         <f>E9+1</f>
         <v>45794</v>
       </c>
@@ -2667,93 +2906,93 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="39"/>
     </row>
-    <row r="10" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+    <row r="10" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="56">
+    <row r="11" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="50">
         <v>1</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="51">
         <f>E9+4</f>
         <v>45797</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="51">
         <f>E11</f>
         <v>45797</v>
       </c>
@@ -2761,79 +3000,79 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
     </row>
-    <row r="12" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="56">
+    <row r="12" spans="1:63" s="35" customFormat="1" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="50">
         <v>1</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="51">
         <f>E11</f>
         <v>45797</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="51">
         <f>E12+1</f>
         <v>45798</v>
       </c>
@@ -2841,79 +3080,79 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="45"/>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="45"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="45"/>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="45"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="39"/>
     </row>
-    <row r="13" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="56">
+    <row r="13" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="50">
         <v>1</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="51">
         <f>F12+6</f>
         <v>45804</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="51">
         <f>E13+2</f>
         <v>45806</v>
       </c>
@@ -2921,79 +3160,79 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="45"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="45"/>
-      <c r="BE13" s="45"/>
-      <c r="BF13" s="45"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="45"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
     </row>
-    <row r="14" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="105" t="s">
+    <row r="14" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="56">
+      <c r="D14" s="50">
         <v>1</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="51">
         <f>F13</f>
         <v>45806</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="51">
         <f>E14+1</f>
         <v>45807</v>
       </c>
@@ -3001,226 +3240,226 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="45"/>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="45"/>
-      <c r="BJ14" s="45"/>
-      <c r="BK14" s="45"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
     </row>
-    <row r="15" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="104">
+    <row r="15" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="91">
         <v>1</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="84">
         <f>F14</f>
         <v>45807</v>
       </c>
-      <c r="F15" s="97">
+      <c r="F15" s="84">
         <f>F14</f>
         <v>45807</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="63"/>
-      <c r="BJ15" s="63"/>
-      <c r="BK15" s="63"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
     </row>
-    <row r="16" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+    <row r="16" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="63"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="63"/>
-      <c r="BH16" s="63"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="57"/>
+      <c r="BF16" s="57"/>
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="57"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="57"/>
+      <c r="BK16" s="57"/>
     </row>
-    <row r="17" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="65">
+    <row r="17" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="59">
         <v>1</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="60">
         <f>E15+1</f>
         <v>45808</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="60">
         <f>E17+2</f>
         <v>45810</v>
       </c>
@@ -3228,79 +3467,79 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="45"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
+      <c r="BG17" s="39"/>
+      <c r="BH17" s="39"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="39"/>
+      <c r="BK17" s="39"/>
     </row>
-    <row r="18" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="65">
+    <row r="18" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="59">
         <v>1</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="60">
         <f>F17+1</f>
         <v>45811</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="60">
         <f>E18+5</f>
         <v>45816</v>
       </c>
@@ -3308,79 +3547,79 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="45"/>
-      <c r="BC18" s="45"/>
-      <c r="BD18" s="45"/>
-      <c r="BE18" s="45"/>
-      <c r="BF18" s="45"/>
-      <c r="BG18" s="45"/>
-      <c r="BH18" s="45"/>
-      <c r="BI18" s="45"/>
-      <c r="BJ18" s="45"/>
-      <c r="BK18" s="45"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
     </row>
-    <row r="19" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="65">
+    <row r="19" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="59">
         <v>1</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="60">
         <f>F18+1</f>
         <v>45817</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="60">
         <f>E19</f>
         <v>45817</v>
       </c>
@@ -3388,79 +3627,79 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="45"/>
-      <c r="BE19" s="45"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="45"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
     </row>
-    <row r="20" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="65">
+    <row r="20" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="59">
         <v>0.5</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="60">
         <f>E19</f>
         <v>45817</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="60">
         <f>E20+2</f>
         <v>45819</v>
       </c>
@@ -3468,79 +3707,79 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="45"/>
-      <c r="BC20" s="45"/>
-      <c r="BD20" s="45"/>
-      <c r="BE20" s="45"/>
-      <c r="BF20" s="45"/>
-      <c r="BG20" s="45"/>
-      <c r="BH20" s="45"/>
-      <c r="BI20" s="45"/>
-      <c r="BJ20" s="45"/>
-      <c r="BK20" s="45"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
     </row>
-    <row r="21" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="65">
+    <row r="21" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="59">
         <v>0.7</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="60">
         <f>E19</f>
         <v>45817</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="60">
         <f>E21+1</f>
         <v>45818</v>
       </c>
@@ -3548,156 +3787,156 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="45"/>
-      <c r="BB21" s="45"/>
-      <c r="BC21" s="45"/>
-      <c r="BD21" s="45"/>
-      <c r="BE21" s="45"/>
-      <c r="BF21" s="45"/>
-      <c r="BG21" s="45"/>
-      <c r="BH21" s="45"/>
-      <c r="BI21" s="45"/>
-      <c r="BJ21" s="45"/>
-      <c r="BK21" s="45"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="39"/>
     </row>
-    <row r="22" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="96">
+    <row r="22" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="83">
         <v>0</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="87">
         <f>F21+1</f>
         <v>45819</v>
       </c>
-      <c r="F22" s="100">
+      <c r="F22" s="87">
         <f>E22+4</f>
         <v>45823</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
     </row>
-    <row r="23" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="96">
+    <row r="23" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="83">
         <v>1</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="87">
         <f>F21+1</f>
         <v>45819</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F23" s="87">
         <f>E23</f>
         <v>45819</v>
       </c>
@@ -3705,149 +3944,149 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="71"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
     </row>
-    <row r="24" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
+    <row r="24" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
       <c r="G24" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="45"/>
-      <c r="BA24" s="45"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="45"/>
-      <c r="BE24" s="45"/>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="45"/>
-      <c r="BI24" s="45"/>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
     </row>
-    <row r="25" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="108" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="73">
+    <row r="25" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="67">
         <v>0</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="68">
         <f>E23+1</f>
         <v>45820</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="68">
         <f>E25+1</f>
         <v>45821</v>
       </c>
@@ -3855,79 +4094,79 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
-      <c r="BB25" s="45"/>
-      <c r="BC25" s="45"/>
-      <c r="BD25" s="45"/>
-      <c r="BE25" s="45"/>
-      <c r="BF25" s="45"/>
-      <c r="BG25" s="45"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="45"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
     </row>
-    <row r="26" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="73">
+    <row r="26" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="67">
         <v>0</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="68">
         <f>F25</f>
         <v>45821</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="68">
         <f>E26+1</f>
         <v>45822</v>
       </c>
@@ -3935,79 +4174,79 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
-      <c r="BA26" s="45"/>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
     </row>
-    <row r="27" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="73">
+    <row r="27" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="67">
         <v>0</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="68">
         <f>F26+1</f>
         <v>45823</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="68">
         <f>E27+2</f>
         <v>45825</v>
       </c>
@@ -4015,79 +4254,79 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
-      <c r="BA27" s="45"/>
-      <c r="BB27" s="45"/>
-      <c r="BC27" s="45"/>
-      <c r="BD27" s="45"/>
-      <c r="BE27" s="45"/>
-      <c r="BF27" s="45"/>
-      <c r="BG27" s="45"/>
-      <c r="BH27" s="45"/>
-      <c r="BI27" s="45"/>
-      <c r="BJ27" s="45"/>
-      <c r="BK27" s="45"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
     </row>
-    <row r="28" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="73">
+    <row r="28" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="67">
         <v>0</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="68">
         <f>E25+5</f>
         <v>45825</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="68">
         <f>E28+3</f>
         <v>45828</v>
       </c>
@@ -4095,79 +4334,79 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="45"/>
-      <c r="BF28" s="45"/>
-      <c r="BG28" s="45"/>
-      <c r="BH28" s="45"/>
-      <c r="BI28" s="45"/>
-      <c r="BJ28" s="45"/>
-      <c r="BK28" s="45"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="39"/>
+      <c r="AZ28" s="39"/>
+      <c r="BA28" s="39"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="39"/>
+      <c r="BG28" s="39"/>
+      <c r="BH28" s="39"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="39"/>
+      <c r="BK28" s="39"/>
     </row>
-    <row r="29" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="73">
+    <row r="29" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="67">
         <v>0</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="68">
         <f>E25+7</f>
         <v>45827</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="68">
         <f>E29+2</f>
         <v>45829</v>
       </c>
@@ -4175,159 +4414,159 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="40"/>
-      <c r="AG29" s="40"/>
-      <c r="AH29" s="40"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="40"/>
-      <c r="AO29" s="40"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="40"/>
-      <c r="AR29" s="40"/>
-      <c r="AS29" s="40"/>
-      <c r="AT29" s="40"/>
-      <c r="AU29" s="40"/>
-      <c r="AV29" s="40"/>
-      <c r="AW29" s="40"/>
-      <c r="AX29" s="40"/>
-      <c r="AY29" s="40"/>
-      <c r="AZ29" s="40"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="40"/>
-      <c r="BC29" s="40"/>
-      <c r="BD29" s="40"/>
-      <c r="BE29" s="40"/>
-      <c r="BF29" s="40"/>
-      <c r="BG29" s="40"/>
-      <c r="BH29" s="40"/>
-      <c r="BI29" s="40"/>
-      <c r="BJ29" s="40"/>
-      <c r="BK29" s="40"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34"/>
+      <c r="AX29" s="34"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="34"/>
+      <c r="BH29" s="34"/>
+      <c r="BI29" s="34"/>
+      <c r="BJ29" s="34"/>
+      <c r="BK29" s="34"/>
     </row>
-    <row r="30" spans="1:63" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
+    <row r="30" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
-      <c r="AK30" s="84"/>
-      <c r="AL30" s="84"/>
-      <c r="AM30" s="84"/>
-      <c r="AN30" s="84"/>
-      <c r="AO30" s="84"/>
-      <c r="AP30" s="84"/>
-      <c r="AQ30" s="84"/>
-      <c r="AR30" s="84"/>
-      <c r="AS30" s="84"/>
-      <c r="AT30" s="84"/>
-      <c r="AU30" s="84"/>
-      <c r="AV30" s="84"/>
-      <c r="AW30" s="84"/>
-      <c r="AX30" s="84"/>
-      <c r="AY30" s="84"/>
-      <c r="AZ30" s="84"/>
-      <c r="BA30" s="84"/>
-      <c r="BB30" s="84"/>
-      <c r="BC30" s="84"/>
-      <c r="BD30" s="84"/>
-      <c r="BE30" s="84"/>
-      <c r="BF30" s="84"/>
-      <c r="BG30" s="84"/>
-      <c r="BH30" s="84"/>
-      <c r="BI30" s="84"/>
-      <c r="BJ30" s="84"/>
-      <c r="BK30" s="84"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="78"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="78"/>
     </row>
     <row r="31" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
     </row>
     <row r="33" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
-      <c r="F33" s="14"/>
+      <c r="C33" s="9"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="P2:Y2"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D31">
     <cfRule type="dataBar" priority="23">
@@ -4344,143 +4583,143 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:AP9">
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$4,task_start&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:AP15">
-    <cfRule type="expression" dxfId="27" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$4,task_start&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:AP22">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$4,task_start&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:AP28">
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>AND(task_start&lt;=H$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$4,task_start&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:AQ28 H4:AP5">
-    <cfRule type="expression" dxfId="23" priority="38">
+    <cfRule type="expression" dxfId="52" priority="38">
       <formula>AND(TODAY()&gt;=H$4, TODAY()&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:AQ9">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(task_start&lt;=H$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:AQ15">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(task_start&lt;=H$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:AQ22">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>AND(task_start&lt;=H$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ5">
-    <cfRule type="expression" dxfId="19" priority="73">
+    <cfRule type="expression" dxfId="48" priority="73">
       <formula>AND(TODAY()&gt;=AQ$4, TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AQ9">
-    <cfRule type="expression" dxfId="18" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=AQ$4,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ11:AQ15">
-    <cfRule type="expression" dxfId="17" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=AQ$4,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ17:AQ22">
-    <cfRule type="expression" dxfId="16" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=AQ$4,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24:AQ28">
-    <cfRule type="expression" dxfId="15" priority="67">
+    <cfRule type="expression" dxfId="44" priority="67">
       <formula>AND(task_start&lt;=AQ$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AQ$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=AQ$4,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:BJ28">
-    <cfRule type="expression" dxfId="13" priority="72">
+    <cfRule type="expression" dxfId="42" priority="72">
       <formula>AND(TODAY()&gt;=#REF!, TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:BJ9">
-    <cfRule type="expression" dxfId="12" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11:BJ15">
-    <cfRule type="expression" dxfId="11" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR17:BJ22">
-    <cfRule type="expression" dxfId="10" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="58" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR24:BJ28">
-    <cfRule type="expression" dxfId="9" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR8:BK9">
-    <cfRule type="expression" dxfId="8" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11:BK15">
-    <cfRule type="expression" dxfId="7" priority="49">
+    <cfRule type="expression" dxfId="36" priority="49">
       <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR17:BK22">
-    <cfRule type="expression" dxfId="6" priority="57">
+    <cfRule type="expression" dxfId="35" priority="57">
       <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR24:BK28">
-    <cfRule type="expression" dxfId="5" priority="65">
+    <cfRule type="expression" dxfId="34" priority="65">
       <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK6:BK28">
-    <cfRule type="expression" dxfId="4" priority="74">
+    <cfRule type="expression" dxfId="33" priority="74">
       <formula>AND(TODAY()&gt;=#REF!, TODAY()&lt;AR$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK8:BK9">
-    <cfRule type="expression" dxfId="3" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="46" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;AR$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK11:BK15">
-    <cfRule type="expression" dxfId="2" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;AR$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK17:BK22">
-    <cfRule type="expression" dxfId="1" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;AR$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24:BK28">
-    <cfRule type="expression" dxfId="0" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="70" stopIfTrue="1">
       <formula>AND(task_end&gt;=#REF!,task_start&lt;AR$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4530,149 +4769,2139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E00E3-ED4F-407E-901F-1A604877D6DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="2.69921875" customWidth="1"/>
+    <col min="7" max="7" width="6" hidden="1" customWidth="1"/>
+    <col min="8" max="64" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+    <row r="1" spans="1:63" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A1" s="7"/>
+      <c r="B1" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="111">
+        <f>DATE(2025,5,15)</f>
+        <v>45792</v>
+      </c>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+    </row>
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="H2" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="109">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+    </row>
+    <row r="3" spans="1:63" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="17"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:63" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+    </row>
+    <row r="6" spans="1:63" s="18" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="18" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+    </row>
+    <row r="7" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ref="G7:G30" si="0">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+    </row>
+    <row r="8" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="38">
+        <f>Project_Start</f>
+        <v>45792</v>
+      </c>
+      <c r="E8" s="38">
+        <f>D8+1</f>
+        <v>45793</v>
+      </c>
+      <c r="F8" s="114"/>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="39"/>
+    </row>
+    <row r="9" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="42">
+        <f>D8+1</f>
+        <v>45793</v>
+      </c>
+      <c r="E9" s="42">
+        <f>D9+1</f>
+        <v>45794</v>
+      </c>
+      <c r="F9" s="114"/>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="39"/>
+    </row>
+    <row r="10" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="11"/>
+    <row r="11" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="51">
+        <f>D9+4</f>
+        <v>45797</v>
+      </c>
+      <c r="E11" s="51">
+        <f>D11</f>
+        <v>45797</v>
+      </c>
+      <c r="F11" s="114"/>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A4" s="90" t="s">
+    <row r="12" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="51">
+        <f>D11</f>
+        <v>45797</v>
+      </c>
+      <c r="E12" s="51">
+        <f>D12+1</f>
+        <v>45798</v>
+      </c>
+      <c r="F12" s="114"/>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+      <c r="BH12" s="39"/>
+      <c r="BI12" s="39"/>
+      <c r="BJ12" s="39"/>
+      <c r="BK12" s="39"/>
+    </row>
+    <row r="13" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="51">
+        <f>E12+6</f>
+        <v>45804</v>
+      </c>
+      <c r="E13" s="51">
+        <f>D13+2</f>
+        <v>45806</v>
+      </c>
+      <c r="F13" s="114"/>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
+    </row>
+    <row r="14" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="51">
+        <f>E13</f>
+        <v>45806</v>
+      </c>
+      <c r="E14" s="51">
+        <f>D14+1</f>
+        <v>45807</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
+    </row>
+    <row r="15" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="84">
+        <f>E14</f>
+        <v>45807</v>
+      </c>
+      <c r="E15" s="84">
+        <f>E14</f>
+        <v>45807</v>
+      </c>
+      <c r="F15" s="114"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
+    </row>
+    <row r="16" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="57"/>
+      <c r="BF16" s="57"/>
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="57"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="57"/>
+      <c r="BK16" s="57"/>
+    </row>
+    <row r="17" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="60">
+        <f>D15+1</f>
+        <v>45808</v>
+      </c>
+      <c r="E17" s="60">
+        <f>D17+2</f>
+        <v>45810</v>
+      </c>
+      <c r="F17" s="114"/>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
+      <c r="BG17" s="39"/>
+      <c r="BH17" s="39"/>
+      <c r="BI17" s="39"/>
+      <c r="BJ17" s="39"/>
+      <c r="BK17" s="39"/>
+    </row>
+    <row r="18" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="60">
+        <f>E17+1</f>
+        <v>45811</v>
+      </c>
+      <c r="E18" s="60">
+        <f>D18+3</f>
+        <v>45814</v>
+      </c>
+      <c r="F18" s="114"/>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+    </row>
+    <row r="19" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="60">
+        <f>D18+4</f>
+        <v>45815</v>
+      </c>
+      <c r="E19" s="60">
+        <f>D19+4</f>
+        <v>45819</v>
+      </c>
+      <c r="F19" s="114"/>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
-        <v>13</v>
-      </c>
+    <row r="20" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="60">
+        <f>E19+1</f>
+        <v>45820</v>
+      </c>
+      <c r="E20" s="60">
+        <f>D20+1</f>
+        <v>45821</v>
+      </c>
+      <c r="F20" s="114"/>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+    <row r="21" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="58" t="s">
         <v>16</v>
       </c>
+      <c r="D21" s="60">
+        <f>D19</f>
+        <v>45815</v>
+      </c>
+      <c r="E21" s="60">
+        <f>D21+1</f>
+        <v>45816</v>
+      </c>
+      <c r="F21" s="114"/>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+      <c r="BH21" s="39"/>
+      <c r="BI21" s="39"/>
+      <c r="BJ21" s="39"/>
+      <c r="BK21" s="39"/>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+    <row r="22" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="87">
+        <f>E21+1</f>
+        <v>45817</v>
+      </c>
+      <c r="E22" s="87">
+        <f>D22+1</f>
+        <v>45818</v>
+      </c>
+      <c r="F22" s="114"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="65"/>
+      <c r="AT22" s="65"/>
+      <c r="AU22" s="65"/>
+      <c r="AV22" s="65"/>
+      <c r="AW22" s="65"/>
+      <c r="AX22" s="65"/>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
+      <c r="BC22" s="65"/>
+      <c r="BD22" s="65"/>
+      <c r="BE22" s="65"/>
+      <c r="BF22" s="65"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="65"/>
+      <c r="BI22" s="65"/>
+      <c r="BJ22" s="65"/>
+      <c r="BK22" s="65"/>
+    </row>
+    <row r="23" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
+    </row>
+    <row r="24" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>15</v>
       </c>
+      <c r="D24" s="68">
+        <f>D22+1</f>
+        <v>45818</v>
+      </c>
+      <c r="E24" s="68">
+        <f>D24+1</f>
+        <v>45819</v>
+      </c>
+      <c r="F24" s="114"/>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A8" s="90" t="s">
-        <v>7</v>
-      </c>
+    <row r="25" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="68">
+        <f>E24</f>
+        <v>45819</v>
+      </c>
+      <c r="E25" s="68">
+        <f>D25+1</f>
+        <v>45820</v>
+      </c>
+      <c r="F25" s="114"/>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
+      <c r="BA25" s="39"/>
+      <c r="BB25" s="39"/>
+      <c r="BC25" s="39"/>
+      <c r="BD25" s="39"/>
+      <c r="BE25" s="39"/>
+      <c r="BF25" s="39"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="39"/>
+      <c r="BI25" s="39"/>
+      <c r="BJ25" s="39"/>
+      <c r="BK25" s="39"/>
     </row>
-    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+    <row r="26" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="68">
+        <f>E25+1</f>
+        <v>45821</v>
+      </c>
+      <c r="E26" s="68">
+        <f>D26+2</f>
+        <v>45823</v>
+      </c>
+      <c r="F26" s="114"/>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
+      <c r="BD26" s="39"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="39"/>
+      <c r="BG26" s="39"/>
+      <c r="BH26" s="39"/>
+      <c r="BI26" s="39"/>
+      <c r="BJ26" s="39"/>
+      <c r="BK26" s="39"/>
+    </row>
+    <row r="27" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="66" t="s">
         <v>14</v>
       </c>
+      <c r="D27" s="68">
+        <f>D24+5</f>
+        <v>45823</v>
+      </c>
+      <c r="E27" s="68">
+        <f>D27+3</f>
+        <v>45826</v>
+      </c>
+      <c r="F27" s="114"/>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
+      <c r="BD27" s="39"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
-        <v>12</v>
-      </c>
+    <row r="28" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="68">
+        <f>D24+7</f>
+        <v>45825</v>
+      </c>
+      <c r="E28" s="68">
+        <f>D28+2</f>
+        <v>45827</v>
+      </c>
+      <c r="F28" s="114"/>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="39"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="39"/>
+      <c r="AX28" s="39"/>
+      <c r="AY28" s="39"/>
+      <c r="AZ28" s="39"/>
+      <c r="BA28" s="39"/>
+      <c r="BB28" s="39"/>
+      <c r="BC28" s="39"/>
+      <c r="BD28" s="39"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="39"/>
+      <c r="BG28" s="39"/>
+      <c r="BH28" s="39"/>
+      <c r="BI28" s="39"/>
+      <c r="BJ28" s="39"/>
+      <c r="BK28" s="39"/>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A11" s="90" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34"/>
+      <c r="AX29" s="34"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="34"/>
+      <c r="BH29" s="34"/>
+      <c r="BI29" s="34"/>
+      <c r="BJ29" s="34"/>
+      <c r="BK29" s="34"/>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
-        <v>11</v>
-      </c>
+    <row r="30" spans="1:63" s="35" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="78"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="78"/>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
-        <v>2</v>
-      </c>
+    <row r="31" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="115"/>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A14" s="90" t="s">
-        <v>8</v>
-      </c>
+    <row r="32" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+      <c r="E32" s="8"/>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="69" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+    <row r="33" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <mergeCells count="9">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="P1:Y1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AR6:BJ28">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>AND(TODAY()&gt;=#REF!, TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8:BJ9">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR11:BJ15">
+    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:BJ22">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24:BJ28">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8:BK9">
+    <cfRule type="expression" dxfId="23" priority="11">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR11:BK15">
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:BK22">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24:BK28">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK6:BK28">
+    <cfRule type="expression" dxfId="19" priority="30">
+      <formula>AND(TODAY()&gt;=#REF!, TODAY()&lt;H$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK8:BK9">
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;H$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK11:BK15">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;H$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK17:BK22">
+    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;H$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK24:BK28">
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;H$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:AP9">
+    <cfRule type="expression" dxfId="14" priority="75" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:AP15">
+    <cfRule type="expression" dxfId="13" priority="76" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:AP22">
+    <cfRule type="expression" dxfId="12" priority="77" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:AP28">
+    <cfRule type="expression" dxfId="11" priority="78">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="79" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:AP28">
+    <cfRule type="expression" dxfId="9" priority="80">
+      <formula>AND(TODAY()&gt;=#REF!, TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ6:AQ28">
+    <cfRule type="expression" dxfId="8" priority="81">
+      <formula>AND(TODAY()&gt;=#REF!, TODAY()&lt;H$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:AQ9">
+    <cfRule type="expression" dxfId="7" priority="82">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:AQ15">
+    <cfRule type="expression" dxfId="6" priority="83">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:AQ22">
+    <cfRule type="expression" dxfId="5" priority="84">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8:AQ9">
+    <cfRule type="expression" dxfId="4" priority="85" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ11:AQ15">
+    <cfRule type="expression" dxfId="3" priority="86" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ17:AQ22">
+    <cfRule type="expression" dxfId="2" priority="87" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24:AQ28">
+    <cfRule type="expression" dxfId="1" priority="88">
+      <formula>AND(task_start&lt;=#REF!,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="89" stopIfTrue="1">
+      <formula>AND(task_end&gt;=#REF!,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A30" xr:uid="{50A89A4C-A2A8-43FE-B4A6-EF1F305B10A8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A23" xr:uid="{69BAB027-94DB-4084-8326-FCEC376642EA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A16" xr:uid="{664A32FE-EC48-4010-A8EC-981F4FCF7324}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A10" xr:uid="{ED739C5B-D53E-4B3D-B035-832200C5F64C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A8" xr:uid="{BA1E2F6E-5813-45EE-9556-973E1D4B5AF6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A7" xr:uid="{501A8DF2-C2AA-4FBD-AD75-9166F7C63160}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A4:A5" xr:uid="{9C6F6441-2B7E-4354-9863-8AA8B73A3ED8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{5E7CCA65-F1A3-4DA8-A13C-E98A82527A9A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{1156DCF6-0F34-4523-B231-6D41DE8BF6B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{98643CC4-ACD7-473E-89BB-FAA69DEA0B5F}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="P2" xr:uid="{C0096FD7-9617-4B2B-845A-AA3481C0AA09}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4988,29 +7217,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5037,9 +7266,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
